--- a/Emerson.xlsx
+++ b/Emerson.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emerson Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emerson Tool\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A14BEF-E1E6-4647-9414-E9DAA9374667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E9665-793A-4DB3-AD18-15578592E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,9 +1217,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>12</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1881,13 +1879,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D408" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Wrong Wiring , Incomplete Asembly, Material Shortfall , Incomplete wiring , Design Error , Faulty Equipment , Workmanship error, Wrong Assembly"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F663" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>45925</formula1>
-      <formula2>46290</formula2>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F663" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>46026</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J696" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>H9</formula1>
@@ -1898,6 +1895,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B174" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{4BC03594-99D3-4468-941F-2F40A8C498FF}">
+      <formula1>46026</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3783,7 +3783,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3908,14 +3908,8 @@
         <v>49</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="6"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L41" si="0">UPPER(TRIM(B11))</f>
@@ -3931,14 +3925,8 @@
         <v>50</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="6"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -3956,14 +3944,8 @@
         <v>52</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="6"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -3979,14 +3961,8 @@
         <v>53</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="6"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -4002,14 +3978,8 @@
         <v>54</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="6"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -4025,14 +3995,8 @@
         <v>55</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="6"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -4048,14 +4012,8 @@
         <v>56</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="6"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -4071,14 +4029,8 @@
         <v>57</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="6"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -4094,14 +4046,8 @@
         <v>58</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="6"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -4119,14 +4065,8 @@
         <v>60</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="6"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -4142,14 +4082,8 @@
         <v>61</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="6"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -4165,14 +4099,8 @@
         <v>62</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="6"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
@@ -4188,14 +4116,8 @@
         <v>63</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="6"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
@@ -4211,14 +4133,8 @@
         <v>64</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="6"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
@@ -4234,14 +4150,8 @@
         <v>65</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="6"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
@@ -4257,14 +4167,8 @@
         <v>66</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="6"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
@@ -4280,14 +4184,8 @@
         <v>67</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="6"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
@@ -4303,14 +4201,8 @@
         <v>68</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="6"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
@@ -4328,14 +4220,8 @@
         <v>70</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="6"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
@@ -4351,14 +4237,8 @@
         <v>71</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="6"/>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
@@ -4374,14 +4254,8 @@
         <v>72</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="6"/>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
@@ -4397,14 +4271,8 @@
         <v>73</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="6"/>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
@@ -4420,14 +4288,8 @@
         <v>74</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="6"/>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
@@ -4443,14 +4305,8 @@
         <v>75</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="6"/>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
@@ -4466,14 +4322,8 @@
         <v>76</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="6"/>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
@@ -4489,14 +4339,8 @@
         <v>77</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="6"/>
       <c r="L36" t="str">
         <f t="shared" si="0"/>
@@ -4514,14 +4358,8 @@
         <v>79</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="6"/>
       <c r="L37" t="str">
         <f t="shared" si="0"/>
@@ -4537,14 +4375,8 @@
         <v>80</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="6"/>
       <c r="L38" t="str">
         <f t="shared" si="0"/>
@@ -4560,14 +4392,8 @@
         <v>81</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="6"/>
       <c r="L39" t="str">
         <f t="shared" si="0"/>
@@ -4583,14 +4409,8 @@
         <v>82</v>
       </c>
       <c r="D40" s="19"/>
-      <c r="E40" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="6"/>
       <c r="L40" t="str">
         <f t="shared" si="0"/>
@@ -4606,14 +4426,8 @@
         <v>83</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="14">
-        <f>'Punch Sheet'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="15">
-        <f>'Punch Sheet'!F9</f>
-        <v>0</v>
-      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="6"/>
       <c r="L41" t="str">
         <f t="shared" si="0"/>
@@ -4638,7 +4452,7 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C4:H5"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F41" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>45925</formula1>
       <formula2>46290</formula2>
